--- a/melhoras no killerbreak.xlsx
+++ b/melhoras no killerbreak.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9F5F94-C3D8-426A-BC9C-6F155EFBD141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E5009C-4F88-4598-BF42-695B4E944479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="etapas" sheetId="2" r:id="rId1"/>
@@ -686,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:R17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1280,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEAD0173-18FD-4923-85D7-E96165695F10}">
   <dimension ref="B2:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/melhoras no killerbreak.xlsx
+++ b/melhoras no killerbreak.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E5009C-4F88-4598-BF42-695B4E944479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BB3A5B-0520-4F65-9E99-A0C1036B2056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="etapas" sheetId="2" r:id="rId1"/>
@@ -23,16 +23,17 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>itens das "opções avançadas":</t>
   </si>
@@ -200,6 +201,18 @@
   </si>
   <si>
     <t>as opções de formatação usadas anteriormente são salvas localmente (cache)</t>
+  </si>
+  <si>
+    <t>outras capitalizações não estão sendo afetadas (exemplO está virando ExemplO com a primeira maiuscula ativada)</t>
+  </si>
+  <si>
+    <t>palavras personalizadas não estão funcionando</t>
+  </si>
+  <si>
+    <t>está sendo possivel adicionar a mesma palavra varias vezes na personalizada</t>
+  </si>
+  <si>
+    <t>função download não está exibindo opções</t>
   </si>
 </sst>
 </file>
@@ -686,7 +699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -1091,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:B7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1106,16 +1119,24 @@
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
